--- a/车险/车险销售数据.xlsx
+++ b/车险/车险销售数据.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>购买日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,26 @@
   </si>
   <si>
     <t>车       险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折扣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交强险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车船税</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计保费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -87,9 +107,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
-    <numFmt numFmtId="178" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="176" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -141,7 +161,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -164,27 +184,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -192,19 +212,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -501,275 +533,388 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="27.375" customWidth="1"/>
-    <col min="7" max="7" width="27.5" customWidth="1"/>
-    <col min="8" max="8" width="14.875" customWidth="1"/>
-    <col min="9" max="9" width="29.375" customWidth="1"/>
-    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="17.125" customWidth="1"/>
+    <col min="7" max="7" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.125" customWidth="1"/>
+    <col min="9" max="9" width="18.5" customWidth="1"/>
+    <col min="10" max="10" width="27.375" customWidth="1"/>
+    <col min="11" max="11" width="27.5" customWidth="1"/>
+    <col min="12" max="12" width="14.875" customWidth="1"/>
+    <col min="13" max="13" width="29.375" customWidth="1"/>
+    <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22.5">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:15" ht="22.5">
+      <c r="A1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" ht="20.25">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="I2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="J2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="K2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="L2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="M2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="N2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="20.25">
-      <c r="A3" s="8">
+      <c r="O2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="20.25">
+      <c r="A3" s="5">
         <v>43026</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9">
-        <v>3256</v>
-      </c>
-      <c r="D3" s="10">
-        <v>3159</v>
+      <c r="C3" s="6">
+        <v>950</v>
+      </c>
+      <c r="D3" s="6">
+        <v>3040.42</v>
       </c>
       <c r="E3" s="6">
+        <v>360</v>
+      </c>
+      <c r="F3" s="6">
+        <f>SUM(C3:E3)</f>
+        <v>4350.42</v>
+      </c>
+      <c r="G3" s="12">
+        <f>D3*(1-O3)+C3+E3</f>
+        <v>3255.8688000000002</v>
+      </c>
+      <c r="H3" s="12">
+        <f>D3*(1-0.38)+C3+E3</f>
+        <v>3195.0604000000003</v>
+      </c>
+      <c r="I3" s="3">
         <v>13971608709</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="J3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="K3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="L3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="M3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="9">
-        <f>C3-D3</f>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="20.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" ht="20.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" ht="20.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" ht="20.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" ht="20.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" ht="20.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" ht="20.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" ht="20.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" ht="20.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" ht="20.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" ht="20.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" ht="20.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" ht="20.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="1:10" ht="20.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+      <c r="N3" s="12">
+        <f>G3-H3</f>
+        <v>60.808399999999892</v>
+      </c>
+      <c r="O3" s="8">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="20.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" ht="20.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" ht="20.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" ht="20.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" ht="20.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" ht="20.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" ht="20.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" ht="20.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" ht="20.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
